--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A4394-EA24-438B-A54B-A2C35E4D3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442BBE4-F041-4362-9CB8-615C8C7B5649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="780" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="4" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="301">
   <si>
     <t>Main</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>2L EGFRm</t>
+  </si>
+  <si>
+    <t>AVOID</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1598,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1787,6 +1790,9 @@
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
+      <c r="J19" s="27" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
@@ -2709,7 +2715,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3018,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442BBE4-F041-4362-9CB8-615C8C7B5649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F9B6E-A8C3-4D76-97D6-B38A7212B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="4" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
+    <workbookView xWindow="1665" yWindow="1005" windowWidth="22200" windowHeight="14310" activeTab="4" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="299">
   <si>
     <t>Main</t>
   </si>
@@ -480,12 +480,6 @@
   </si>
   <si>
     <t>Phase III HARMONi-6 full data later in year</t>
-  </si>
-  <si>
-    <t>market pricing in 30% chance of approval</t>
-  </si>
-  <si>
-    <t>If approved stock goes to 90 and could go higher with good trials in other cancers</t>
   </si>
   <si>
     <t>S.S. in PFS</t>
@@ -1598,7 +1592,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="4">
-        <v>26.7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1675,7 +1669,7 @@
       </c>
       <c r="K4" s="5">
         <f>K3*K2</f>
-        <v>19834.006890000001</v>
+        <v>14114.087300000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1714,7 +1708,7 @@
       </c>
       <c r="K7" s="5">
         <f>K4+K6-K5</f>
-        <v>19536.006890000001</v>
+        <v>13816.087300000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1765,7 +1759,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2"/>
       <c r="J15" s="1" t="s">
@@ -1791,7 +1785,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
       <c r="J19" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
@@ -1925,7 +1919,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1961,16 +1955,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1978,502 +1972,502 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="26">
         <v>45855</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="26">
         <v>45855</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="26">
         <v>45813</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="26">
         <v>45813</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="26">
         <v>45804</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="26">
         <v>45785</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="26">
         <v>45785</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="26">
         <v>45771</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="26">
         <v>45722</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="26">
         <v>45671</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="26">
         <v>45671</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E15" s="26">
         <v>45671</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="26">
         <v>45666</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="26">
         <v>45631</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18" s="26">
         <v>45603</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" s="26">
         <v>45603</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="26">
         <v>45582</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" s="26">
         <v>45477</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="26">
         <v>45463</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E23" s="26">
         <v>45449</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" s="26">
         <v>45393</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E25" s="26">
         <v>45344</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" s="26">
         <v>45330</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E27" s="26">
         <v>45300</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" s="26">
         <v>45295</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" s="26">
         <v>45281</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E30" s="26">
         <v>45258</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31" s="26">
         <v>45258</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E32" s="26">
         <v>45146</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="26">
         <v>45134</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E34" s="26">
         <v>45022</v>
       </c>
       <c r="F34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="26">
         <v>44959</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E36" s="26">
         <v>44952</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E37" s="26">
         <v>44861</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E38" s="26">
         <v>44833</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E39" s="26">
         <v>44833</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E40" s="26">
         <v>44756</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E41" s="26">
         <v>44679</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E42" s="26">
         <v>44588</v>
       </c>
       <c r="F42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" s="26">
         <v>44567</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E44" s="26">
         <v>44383</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E45" s="26">
         <v>44329</v>
       </c>
       <c r="F45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E46" s="26">
         <v>44203</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" s="26">
         <v>44063</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="26">
         <v>43741</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -2483,222 +2477,222 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E51" s="26">
         <v>45855</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E52" s="26">
         <v>45855</v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E53" s="26">
         <v>45820</v>
       </c>
       <c r="F53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" s="26">
         <v>45813</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E55" s="26">
         <v>45785</v>
       </c>
       <c r="F55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E56" s="26">
         <v>45771</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E57" s="26">
         <v>45769</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E58" s="26">
         <v>45729</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E59" s="26">
         <v>45708</v>
       </c>
       <c r="F59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E60" s="26">
         <v>45701</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E61" s="26">
         <v>45671</v>
       </c>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E62" s="26">
         <v>45666</v>
       </c>
       <c r="F62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E63" s="26">
         <v>45666</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E64" s="26">
         <v>45652</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E65" s="26">
         <v>45652</v>
       </c>
       <c r="F65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E66" s="26">
         <v>45554</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E67" s="26">
         <v>45533</v>
       </c>
       <c r="F67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E68" s="26">
         <v>45491</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E69" s="26">
         <v>45267</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E70" s="26">
         <v>45246</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -2780,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -2939,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
@@ -2961,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
@@ -2973,7 +2967,7 @@
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -3024,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3133,10 +3127,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3156,10 +3150,10 @@
         <v>0.79</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
@@ -3218,7 +3212,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
@@ -3317,7 +3311,7 @@
         <v>75</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -3330,12 +3324,12 @@
         <v>101</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
@@ -3366,7 +3360,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
@@ -3405,7 +3399,7 @@
         <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
@@ -3430,7 +3424,7 @@
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
@@ -3456,7 +3450,7 @@
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
@@ -3746,7 +3740,7 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
@@ -3757,13 +3751,13 @@
         <v>0.08</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
@@ -3799,17 +3793,11 @@
         <f>D74/Main!K3</f>
         <v>88.897191592688145</v>
       </c>
-      <c r="E75" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D76" s="6">
         <f>D75/Main!K2-1</f>
-        <v>2.3294828311868221</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
+        <v>3.678799557509902</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
@@ -3831,7 +3819,7 @@
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E80" s="6">
         <f>E79/Main!K2-1</f>
-        <v>0.14379790982158114</v>
+        <v>0.60733706274927446</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4144,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -4220,70 +4208,70 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
         <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>2</v>
@@ -4292,28 +4280,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>97</v>
@@ -4324,7 +4312,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -4344,13 +4332,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s">
         <v>275</v>
-      </c>
-      <c r="D17" t="s">
-        <v>277</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>82</v>
@@ -4361,51 +4349,51 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>278</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -4413,16 +4401,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" t="s">
         <v>283</v>
-      </c>
-      <c r="G22" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
